--- a/ig/branch/dev/StructureDefinition-DiagnosticMarker.xlsx
+++ b/ig/branch/dev/StructureDefinition-DiagnosticMarker.xlsx
@@ -263,6 +263,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -306,10 +310,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -486,10 +486,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -936,7 +936,7 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>77</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -958,7 +958,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -970,13 +970,13 @@
         <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1027,13 +1027,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1042,15 +1042,15 @@
         <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1073,13 +1073,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1118,19 +1118,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1142,7 +1142,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1161,10 +1161,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1238,10 +1238,10 @@
         <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1269,7 +1269,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1342,7 +1342,7 @@
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
@@ -1372,7 +1372,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1445,7 +1445,7 @@
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
